--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId3" sheetId="1"/>
-    <sheet name="projects" r:id="rId4" sheetId="2"/>
-    <sheet name="boards" r:id="rId5" sheetId="3"/>
+    <sheet name="users" r:id="rId6" sheetId="11"/>
+    <sheet name="projects" r:id="rId7" sheetId="12"/>
+    <sheet name="boards" r:id="rId5" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="77">
   <si>
     <t>no</t>
   </si>
@@ -197,6 +197,54 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user11@test.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user12@test.com</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>010-1212-1212</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>2024-07-25 17:14:08</t>
+  </si>
+  <si>
+    <t>1,3,5,8,9</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>1999-07-15</t>
+  </si>
+  <si>
+    <t>5,8,11</t>
   </si>
 </sst>
 </file>
@@ -239,141 +287,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -384,19 +300,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -404,19 +317,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +334,101 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>45</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -444,7 +436,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -471,70 +556,70 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -1,20 +1,259 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="11"/>
-    <sheet name="projects" r:id="rId7" sheetId="12"/>
-    <sheet name="boards" r:id="rId5" sheetId="13"/>
+    <sheet name="users" r:id="rId7" sheetId="4"/>
+    <sheet name="projects" r:id="rId8" sheetId="5"/>
+    <sheet name="boards" r:id="rId9" sheetId="6"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-1111-1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-3333-3333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-5555-5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-8888-8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-9999-9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user11@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user12@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-1212-1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user13@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010-1313-1313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3,5,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,8,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-22 12:03:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-25 12:09:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-25 17:14:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-26 11:20:52</t>
+  </si>
   <si>
     <t>no</t>
   </si>
@@ -106,19 +345,43 @@
     <t>010-9999-9999</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>user10@gmail.com</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>010-1010-1010</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user11@test.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user12@test.com</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>010-1212-1212</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user13@test.com</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>010-1313-1313</t>
   </si>
   <si>
     <t>title</t>
@@ -151,7 +414,31 @@
     <t>2024-12-31</t>
   </si>
   <si>
-    <t>1,3,5,8,9,10</t>
+    <t>1,3,5,8,9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>1999-07-15</t>
+  </si>
+  <si>
+    <t>5,8,11</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>13,1</t>
   </si>
   <si>
     <t>content</t>
@@ -163,15 +450,6 @@
     <t>view_count</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>2024-07-22 12:02:57</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -181,12 +459,6 @@
     <t>2024-07-22 12:03:01</t>
   </si>
   <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>2024-07-24 17:16:02</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -199,30 +471,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>user11</t>
-  </si>
-  <si>
-    <t>user11@test.com</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>user12</t>
-  </si>
-  <si>
-    <t>user12@test.com</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>010-1212-1212</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -232,33 +480,41 @@
     <t>2024-07-25 17:14:08</t>
   </si>
   <si>
-    <t>1,3,5,8,9</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>1999-01-01</t>
-  </si>
-  <si>
-    <t>1999-07-15</t>
-  </si>
-  <si>
-    <t>5,8,11</t>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>2024-07-26 11:20:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,11 +522,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -278,18 +534,169 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -297,138 +704,155 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>68</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -436,9 +860,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,82 +870,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>76</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -539,87 +983,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId7" sheetId="4"/>
-    <sheet name="projects" r:id="rId8" sheetId="5"/>
-    <sheet name="boards" r:id="rId9" sheetId="6"/>
+    <sheet name="users" r:id="rId7" sheetId="19"/>
+    <sheet name="projects" r:id="rId8" sheetId="20"/>
+    <sheet name="boards" r:id="rId9" sheetId="21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="159">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -484,6 +484,21 @@
   </si>
   <si>
     <t>2024-07-26 11:20:52</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user14@test.com</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>010-1414-1414</t>
   </si>
 </sst>
 </file>
@@ -694,9 +709,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -855,12 +870,29 @@
         <v>119</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -973,7 +1005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1012,7 +1044,7 @@
         <v>144</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
